--- a/src/EquiposdeFutbol/output.xlsx
+++ b/src/EquiposdeFutbol/output.xlsx
@@ -31168,7 +31168,7 @@
     <row r="2562">
       <c r="A2562" t="inlineStr">
         <is>
-          <t>38.370</t>
+          <t>38.240</t>
         </is>
       </c>
       <c r="B2562" t="inlineStr">
